--- a/scripts/codec_comparison/results/MPEG-G_CRAM_DeeZ_streams_summary.xlsx
+++ b/scripts/codec_comparison/results/MPEG-G_CRAM_DeeZ_streams_summary.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janvoges/Repositories/gabac/scripts/codec_comparison/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janvoges/Repositories/gabac/scripts/codec_comparison/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F077F41F-3683-1F4E-9E8C-ED6F6DF6A120}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11C76BE-CC57-464B-BBF2-95014FE878B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{5785970A-EEFF-1B4A-B8A0-8DD85E688E2A}"/>
+    <workbookView xWindow="10560" yWindow="7980" windowWidth="23040" windowHeight="13020" activeTab="3" xr2:uid="{5785970A-EEFF-1B4A-B8A0-8DD85E688E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="MPEG-G" sheetId="1" r:id="rId1"/>
     <sheet name="CRAM" sheetId="2" r:id="rId2"/>
     <sheet name="DeeZ" sheetId="3" r:id="rId3"/>
+    <sheet name="CRAM + DeeZ" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="mpeg_g_streams_summary" localSheetId="0">'MPEG-G'!$A$1:$N$1237</definedName>
     <definedName name="summary" localSheetId="1">CRAM!$A$1:$N$349</definedName>
     <definedName name="summary" localSheetId="2">DeeZ!$A$1:$N$427</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="358">
   <si>
     <t>codec</t>
   </si>
@@ -1172,6 +1173,12 @@
   <si>
     <t>02_NA12878_S1.unmapped.bam_filtered.rtype</t>
   </si>
+  <si>
+    <t>total_compressed_size</t>
+  </si>
+  <si>
+    <t>total_compression_time_s</t>
+  </si>
 </sst>
 </file>
 
@@ -55996,8 +56003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20F8DFC-F88B-4F4B-80BB-8E87A18EC72A}">
   <dimension ref="A1:N349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71383,8 +71390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1275A14-9D8F-DD4C-80D4-59EA2E9AEDA5}">
   <dimension ref="A1:N427"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -90196,4 +90203,113 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAD4118-5542-744D-873C-8899E59A7A96}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <f>SUMPRODUCT((CRAM!A$2:'CRAM'!A$349='CRAM + DeeZ'!A2)*(CRAM!C$2:'CRAM'!C$349))+SUMPRODUCT((DeeZ!A$2:'DeeZ'!A$427='CRAM + DeeZ'!A2)*(DeeZ!C$2:'DeeZ'!C$427))</f>
+        <v>2264645762</v>
+      </c>
+      <c r="C2">
+        <f>SUMPRODUCT((CRAM!A$2:'CRAM'!A$349='CRAM + DeeZ'!A2)*(CRAM!D$2:'CRAM'!D$349))+SUMPRODUCT((DeeZ!A$2:'DeeZ'!A$427='CRAM + DeeZ'!A2)*(DeeZ!D$2:'DeeZ'!D$427))</f>
+        <v>6276.4599999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <f>SUMPRODUCT((CRAM!A$2:'CRAM'!A$349='CRAM + DeeZ'!A3)*(CRAM!C$2:'CRAM'!C$349))+SUMPRODUCT((DeeZ!A$2:'DeeZ'!A$427='CRAM + DeeZ'!A3)*(DeeZ!C$2:'DeeZ'!C$427))</f>
+        <v>2128664945</v>
+      </c>
+      <c r="C3">
+        <f>SUMPRODUCT((CRAM!A$2:'CRAM'!A$349='CRAM + DeeZ'!A3)*(CRAM!D$2:'CRAM'!D$349))+SUMPRODUCT((DeeZ!A$2:'DeeZ'!A$427='CRAM + DeeZ'!A3)*(DeeZ!D$2:'DeeZ'!D$427))</f>
+        <v>1216.1499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <f>SUMPRODUCT((CRAM!A$2:'CRAM'!A$349='CRAM + DeeZ'!A4)*(CRAM!C$2:'CRAM'!C$349))+SUMPRODUCT((DeeZ!A$2:'DeeZ'!A$427='CRAM + DeeZ'!A4)*(DeeZ!C$2:'DeeZ'!C$427))</f>
+        <v>1979155340</v>
+      </c>
+      <c r="C4">
+        <f>SUMPRODUCT((CRAM!A$2:'CRAM'!A$349='CRAM + DeeZ'!A4)*(CRAM!D$2:'CRAM'!D$349))+SUMPRODUCT((DeeZ!A$2:'DeeZ'!A$427='CRAM + DeeZ'!A4)*(DeeZ!D$2:'DeeZ'!D$427))</f>
+        <v>9251.4999999999982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <f>SUMPRODUCT((CRAM!A$2:'CRAM'!A$349='CRAM + DeeZ'!A5)*(CRAM!C$2:'CRAM'!C$349))+SUMPRODUCT((DeeZ!A$2:'DeeZ'!A$427='CRAM + DeeZ'!A5)*(DeeZ!C$2:'DeeZ'!C$427))</f>
+        <v>3347967661</v>
+      </c>
+      <c r="C5">
+        <f>SUMPRODUCT((CRAM!A$2:'CRAM'!A$349='CRAM + DeeZ'!A5)*(CRAM!D$2:'CRAM'!D$349))+SUMPRODUCT((DeeZ!A$2:'DeeZ'!A$427='CRAM + DeeZ'!A5)*(DeeZ!D$2:'DeeZ'!D$427))</f>
+        <v>206.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <f>SUMPRODUCT((CRAM!A$2:'CRAM'!A$349='CRAM + DeeZ'!A6)*(CRAM!C$2:'CRAM'!C$349))+SUMPRODUCT((DeeZ!A$2:'DeeZ'!A$427='CRAM + DeeZ'!A6)*(DeeZ!C$2:'DeeZ'!C$427))</f>
+        <v>2357082020</v>
+      </c>
+      <c r="C6">
+        <f>SUMPRODUCT((CRAM!A$2:'CRAM'!A$349='CRAM + DeeZ'!A6)*(CRAM!D$2:'CRAM'!D$349))+SUMPRODUCT((DeeZ!A$2:'DeeZ'!A$427='CRAM + DeeZ'!A6)*(DeeZ!D$2:'DeeZ'!D$427))</f>
+        <v>243.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <f>SUMPRODUCT((CRAM!A$2:'CRAM'!A$349='CRAM + DeeZ'!A7)*(CRAM!C$2:'CRAM'!C$349))+SUMPRODUCT((DeeZ!A$2:'DeeZ'!A$427='CRAM + DeeZ'!A7)*(DeeZ!C$2:'DeeZ'!C$427))</f>
+        <v>2135923421</v>
+      </c>
+      <c r="C7">
+        <f>SUMPRODUCT((CRAM!A$2:'CRAM'!A$349='CRAM + DeeZ'!A7)*(CRAM!D$2:'CRAM'!D$349))+SUMPRODUCT((DeeZ!A$2:'DeeZ'!A$427='CRAM + DeeZ'!A7)*(DeeZ!D$2:'DeeZ'!D$427))</f>
+        <v>5126.4100000000017</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>